--- a/docs/PT1/PT1_20.08.2024_output.xlsx
+++ b/docs/PT1/PT1_20.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,434 +505,513 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731089964.1010838</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731089965.1733565</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731089964.1010838.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731089965.1733565.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>266.3</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>266.64</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.339999999999975</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731089965.7650406</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731089966.312631</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731089965.7650406.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731089966.312631.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>267.52</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>267.35</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.1699999999999591</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731089983.0787554</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731089983.9639478</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731089983.0787554.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731089983.9639478.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>266.3</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>266.64</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.339999999999975</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731089984.4805946</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731089984.953302</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731089984.4805946.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731089984.953302.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>267.52</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>267.35</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.1699999999999591</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731090001.3299987</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731090002.4539924</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731090001.3299987.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731090002.4539924.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>266.63</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>266.95</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.3199999999999932</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731090003.3597627</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731090003.7463858</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731090003.3597627.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731090003.7463858.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>268.4</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>267.71</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.6899999999999977</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731090015.2975948</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731090015.4506555</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731090015.2975948.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731090015.4506555.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>268.43</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>267.85</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.5799999999999841</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731090028.3313773</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731090029.3136623</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731090028.3313773.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731090029.3136623.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>127</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>127</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -925,2254 +1019,2668 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731090029.7303383</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731090030.7114685</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731090029.7303383.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731090030.7114685.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>126.74</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>126.52</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.2199999999999989</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731090030.8657043</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731090031.1090524</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731090030.8657043.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731090031.1090524.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>126.32</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>126.52</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.2000000000000028</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731090031.6746883</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731090032.1178763</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731090031.6746883.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731090032.1178763.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>126.3</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>126.42</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731090042.3130887</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731090043.4247894</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731090042.3130887.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731090043.4247894.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6105</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6111</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-6</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731090044.3485518</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731090045.2314467</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731090044.3485518.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731090045.2314467.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6134.5</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>6153.5</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-19</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731090056.5332527</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731090056.966597</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731090056.5332527.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731090056.966597.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>485.95</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>484.6</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>1.349999999999966</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731090062.451679</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731090063.4844785</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731090062.451679.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731090063.4844785.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>483.4</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>484.25</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.8500000000000227</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731090064.4501767</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731090065.31528</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731090064.4501767.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731090065.31528.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>484.95</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>485.2</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-0.25</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731090080.126482</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731090080.779449</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731090080.126482.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731090080.779449.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>212.17</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>211.9</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.2699999999999818</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731090081.5449502</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731090082.4471903</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731090081.5449502.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731090082.4471903.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>212.71</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>212.4</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.3100000000000023</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731090082.7600253</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731090083.5011253</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731090082.7600253.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731090083.5011253.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>212.86</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>213.67</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-0.8099999999999739</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731090091.6682863</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731090092.6496222</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731090091.6682863.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731090092.6496222.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>212.79</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>212.73</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731090095.3996215</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731090095.7658987</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731090095.3996215.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731090095.7658987.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1015</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1018</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>3</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731090107.847922</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731090108.2714894</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731090107.847922.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731090108.2714894.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1023.8</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1025.8</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731090108.8323386</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731090109.162228</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731090108.8323386.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731090109.162228.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1024.6</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1025.6</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731090109.8043144</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731090111.1808083</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731090109.8043144.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731090111.1808083.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1022.8</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1020.8</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-2</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731090112.279569</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731090112.7794847</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731090112.279569.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731090112.7794847.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1019.2</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1021.6</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>2.399999999999977</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731090115.083897</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731090115.2675872</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/CNY1731090115.083897.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/CNY1731090115.2675872.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>12.157</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>12.166</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.009000000000000341</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731090115.3240588</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731090116.557137</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/CNY1731090115.3240588.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/CNY1731090116.557137.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>12.159</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>12.124</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.03500000000000014</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731090132.9791238</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731090133.4855514</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/CNY1731090132.9791238.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/CNY1731090133.4855514.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>12.218</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>12.224</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.006000000000000227</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731090139.466064</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731090140.3745568</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731090139.466064.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731090140.3745568.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>124.96</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>125.06</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.1000000000000085</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731090141.154349</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731090142.1657338</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731090141.154349.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731090142.1657338.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>125.24</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>125.42</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.1800000000000068</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731090142.270084</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731090142.4215412</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731090142.270084.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731090142.4215412.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>125.5</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>125.42</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731090142.5858986</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731090142.6933184</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731090142.5858986.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731090142.6933184.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>125.48</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>125.44</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.04000000000000625</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731090152.0695212</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731090152.572433</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731090152.0695212.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731090152.572433.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>124.78</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>124.4</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.3799999999999955</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731090159.0048053</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731090160.2371538</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731090159.0048053.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731090160.2371538.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>156.96</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>157.48</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-0.5199999999999818</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731090160.380502</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731090160.9062574</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731090160.380502.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731090160.9062574.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>157.96</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>157.82</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.1400000000000148</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731090180.401566</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731090180.9225013</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731090180.401566.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731090180.9225013.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>47.71</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>47.615</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.09499999999999886</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731090181.2040079</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731090181.9547427</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731090181.2040079.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731090181.9547427.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>47.73</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>47.67</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.05999999999999517</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731090197.4763145</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731090198.67962</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731090197.4763145.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731090198.67962.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>1341.6</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>1345.2</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-3.600000000000136</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731090199.6478417</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731090199.8326485</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731090199.6478417.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731090199.8326485.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>1348</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>1345.2</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>2.799999999999955</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731090200.0580275</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731090200.4840922</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731090200.0580275.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731090200.4840922.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>1348.6</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>1349</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.4000000000000909</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731090210.607432</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731090210.8570263</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731090210.607432.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731090210.8570263.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>1347.2</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>1342.8</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>4.400000000000091</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731090218.638144</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731090219.907709</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731090218.638144.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731090219.907709.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>56.27</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>56.42</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-0.1499999999999986</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731090221.1334214</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731090221.6260722</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731090221.1334214.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731090221.6260722.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>56.56</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>56.45</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731090245.5695157</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731090246.0230231</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731090245.5695157.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731090246.0230231.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>99.94</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>100.04</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.1000000000000085</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731090247.4682634</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731090248.2781668</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731090247.4682634.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731090248.2781668.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>99.61</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>99.68000000000001</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.07000000000000739</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731090249.5370286</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731090250.3877196</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731090249.5370286.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731090250.3877196.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>99.47</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>99.5</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731090255.9612212</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731090258.3217864</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/SELG1731090255.9612212.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/SELG1731090258.3217864.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>52.32</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>53.52</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-1.200000000000003</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-2.29</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731090276.5184195</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731090279.2051468</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731090276.5184195.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731090279.2051468.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>149.46</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>150.68</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-1.219999999999999</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.8200000000000001</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731090293.2259512</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731090301.0238385</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731090293.2259512.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731090301.0238385.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>0.2979</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>0.3034</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-0.005500000000000005</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-1.85</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731090310.485851</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731090311.2428558</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731090310.485851.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731090311.2428558.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>19.278</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>19.303</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.02500000000000213</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731090330.799666</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731090332.6472852</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731090330.799666.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731090332.6472852.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>663.3</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>666</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-2.700000000000045</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.41</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731090342.4012399</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731090342.7952447</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731090342.4012399.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731090342.7952447.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>143.29</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>141.86</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>1.429999999999978</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731090349.128462</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731090350.4095745</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731090349.128462.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731090350.4095745.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>139.56</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>140.88</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-1.319999999999993</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.95</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731090350.8794065</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731090351.275007</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731090350.8794065.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731090351.275007.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>141.94</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>141.35</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.5900000000000034</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.42</v>
       </c>
     </row>
   </sheetData>
@@ -3186,7 +3694,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3210,6 +3718,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3223,6 +3746,15 @@
       <c r="C2" t="n">
         <v>5</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.1559999999999945</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3236,6 +3768,15 @@
       <c r="C3" t="n">
         <v>5</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.04399999999999693</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3249,6 +3790,15 @@
       <c r="C4" t="n">
         <v>5</v>
       </c>
+      <c r="D4" t="n">
+        <v>1.279999999999995</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3262,6 +3812,15 @@
       <c r="C5" t="n">
         <v>4</v>
       </c>
+      <c r="D5" t="n">
+        <v>-0.04249999999999687</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.06999999999999998</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3275,6 +3834,15 @@
       <c r="C6" t="n">
         <v>4</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.7999999999999545</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3288,6 +3856,15 @@
       <c r="C7" t="n">
         <v>4</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.02500000000000213</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.09000000000000002</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3301,6 +3878,15 @@
       <c r="C8" t="n">
         <v>3</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.06666666666667236</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3314,6 +3900,15 @@
       <c r="C9" t="n">
         <v>3</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.08333333333331439</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.04999999999999998</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3327,6 +3922,15 @@
       <c r="C10" t="n">
         <v>3</v>
       </c>
+      <c r="D10" t="n">
+        <v>0.2333333333333295</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3340,6 +3944,15 @@
       <c r="C11" t="n">
         <v>3</v>
       </c>
+      <c r="D11" t="n">
+        <v>-0.006666666666666525</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.06</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3353,6 +3966,15 @@
       <c r="C12" t="n">
         <v>2</v>
       </c>
+      <c r="D12" t="n">
+        <v>-0.01999999999999957</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.08000000000000002</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3366,6 +3988,15 @@
       <c r="C13" t="n">
         <v>2</v>
       </c>
+      <c r="D13" t="n">
+        <v>-0.1899999999999835</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.12</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3379,6 +4010,15 @@
       <c r="C14" t="n">
         <v>2</v>
       </c>
+      <c r="D14" t="n">
+        <v>0.07749999999999702</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -3392,6 +4032,15 @@
       <c r="C15" t="n">
         <v>2</v>
       </c>
+      <c r="D15" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -3405,6 +4054,15 @@
       <c r="C16" t="n">
         <v>2</v>
       </c>
+      <c r="D16" t="n">
+        <v>-0.08500000000000796</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -3418,6 +4076,15 @@
       <c r="C17" t="n">
         <v>1</v>
       </c>
+      <c r="D17" t="n">
+        <v>-2.700000000000045</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.41</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -3431,6 +4098,15 @@
       <c r="C18" t="n">
         <v>1</v>
       </c>
+      <c r="D18" t="n">
+        <v>-1.219999999999999</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.8200000000000001</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.82</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -3444,6 +4120,15 @@
       <c r="C19" t="n">
         <v>1</v>
       </c>
+      <c r="D19" t="n">
+        <v>-0.02500000000000213</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.13</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -3457,6 +4142,15 @@
       <c r="C20" t="n">
         <v>1</v>
       </c>
+      <c r="D20" t="n">
+        <v>-1.200000000000003</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-2.29</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-2.29</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -3470,6 +4164,15 @@
       <c r="C21" t="n">
         <v>1</v>
       </c>
+      <c r="D21" t="n">
+        <v>-0.005500000000000005</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-1.85</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-1.85</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -3483,6 +4186,11 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
